--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Rtn4-S1pr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Rtn4-S1pr2.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>51.74808266666667</v>
+        <v>48.46865866666667</v>
       </c>
       <c r="H2">
-        <v>155.244248</v>
+        <v>145.405976</v>
       </c>
       <c r="I2">
-        <v>0.1468432527076591</v>
+        <v>0.1554430998624896</v>
       </c>
       <c r="J2">
-        <v>0.1468432527076591</v>
+        <v>0.1554430998624896</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.414264</v>
+        <v>1.189172666666667</v>
       </c>
       <c r="N2">
-        <v>4.242792</v>
+        <v>3.567518</v>
       </c>
       <c r="O2">
-        <v>0.04985577133403134</v>
+        <v>0.04160633681080472</v>
       </c>
       <c r="P2">
-        <v>0.04985577133403134</v>
+        <v>0.04160633681080472</v>
       </c>
       <c r="Q2">
-        <v>73.18545038449066</v>
+        <v>57.63760407639645</v>
       </c>
       <c r="R2">
-        <v>658.669053460416</v>
+        <v>518.738436687568</v>
       </c>
       <c r="S2">
-        <v>0.007320983628938431</v>
+        <v>0.006467417967794297</v>
       </c>
       <c r="T2">
-        <v>0.007320983628938431</v>
+        <v>0.006467417967794296</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>51.74808266666667</v>
+        <v>48.46865866666667</v>
       </c>
       <c r="H3">
-        <v>155.244248</v>
+        <v>145.405976</v>
       </c>
       <c r="I3">
-        <v>0.1468432527076591</v>
+        <v>0.1554430998624896</v>
       </c>
       <c r="J3">
-        <v>0.1468432527076591</v>
+        <v>0.1554430998624896</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>9.051477666666667</v>
+        <v>9.051477666666665</v>
       </c>
       <c r="N3">
         <v>27.154433</v>
       </c>
       <c r="O3">
-        <v>0.3190835662821262</v>
+        <v>0.3166897785251344</v>
       </c>
       <c r="P3">
-        <v>0.3190835662821262</v>
+        <v>0.3166897785251344</v>
       </c>
       <c r="Q3">
-        <v>468.3966145501538</v>
+        <v>438.712981454623</v>
       </c>
       <c r="R3">
-        <v>4215.569530951384</v>
+        <v>3948.416833091608</v>
       </c>
       <c r="S3">
-        <v>0.04685526875842735</v>
+        <v>0.04922724086871218</v>
       </c>
       <c r="T3">
-        <v>0.04685526875842736</v>
+        <v>0.04922724086871218</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>51.74808266666667</v>
+        <v>48.46865866666667</v>
       </c>
       <c r="H4">
-        <v>155.244248</v>
+        <v>145.405976</v>
       </c>
       <c r="I4">
-        <v>0.1468432527076591</v>
+        <v>0.1554430998624896</v>
       </c>
       <c r="J4">
-        <v>0.1468432527076591</v>
+        <v>0.1554430998624896</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.586440999999999</v>
+        <v>8.709194666666667</v>
       </c>
       <c r="N4">
-        <v>25.759323</v>
+        <v>26.127584</v>
       </c>
       <c r="O4">
-        <v>0.3026900487243905</v>
+        <v>0.3047141065459495</v>
       </c>
       <c r="P4">
-        <v>0.3026900487243905</v>
+        <v>0.3047141065459494</v>
       </c>
       <c r="Q4">
-        <v>444.331858680456</v>
+        <v>422.1229835602205</v>
       </c>
       <c r="R4">
-        <v>3998.986728124104</v>
+        <v>3799.106852041984</v>
       </c>
       <c r="S4">
-        <v>0.04444799131692932</v>
+        <v>0.04736570529333133</v>
       </c>
       <c r="T4">
-        <v>0.04444799131692933</v>
+        <v>0.04736570529333132</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>51.74808266666667</v>
+        <v>48.46865866666667</v>
       </c>
       <c r="H5">
-        <v>155.244248</v>
+        <v>145.405976</v>
       </c>
       <c r="I5">
-        <v>0.1468432527076591</v>
+        <v>0.1554430998624896</v>
       </c>
       <c r="J5">
-        <v>0.1468432527076591</v>
+        <v>0.1554430998624896</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.089400666666666</v>
+        <v>0.9484986666666666</v>
       </c>
       <c r="N5">
-        <v>3.268202</v>
+        <v>2.845496</v>
       </c>
       <c r="O5">
-        <v>0.03840365768235254</v>
+        <v>0.0331857232310524</v>
       </c>
       <c r="P5">
-        <v>0.03840365768235254</v>
+        <v>0.03318572323105239</v>
       </c>
       <c r="Q5">
-        <v>56.37439575578843</v>
+        <v>45.97245812045511</v>
       </c>
       <c r="R5">
-        <v>507.3695618020959</v>
+        <v>413.752123084096</v>
       </c>
       <c r="S5">
-        <v>0.005639318009948127</v>
+        <v>0.005158491690213421</v>
       </c>
       <c r="T5">
-        <v>0.005639318009948128</v>
+        <v>0.00515849169021342</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>51.74808266666667</v>
+        <v>48.46865866666667</v>
       </c>
       <c r="H6">
-        <v>155.244248</v>
+        <v>145.405976</v>
       </c>
       <c r="I6">
-        <v>0.1468432527076591</v>
+        <v>0.1554430998624896</v>
       </c>
       <c r="J6">
-        <v>0.1468432527076591</v>
+        <v>0.1554430998624896</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.225523666666668</v>
+        <v>8.683183999999999</v>
       </c>
       <c r="N6">
-        <v>24.676571</v>
+        <v>26.049552</v>
       </c>
       <c r="O6">
-        <v>0.2899669559770994</v>
+        <v>0.3038040548870592</v>
       </c>
       <c r="P6">
-        <v>0.2899669559770993</v>
+        <v>0.3038040548870592</v>
       </c>
       <c r="Q6">
-        <v>425.6550786792898</v>
+        <v>420.8622814358613</v>
       </c>
       <c r="R6">
-        <v>3830.895708113608</v>
+        <v>3787.760532922752</v>
       </c>
       <c r="S6">
-        <v>0.04257969099341587</v>
+        <v>0.04722424404243843</v>
       </c>
       <c r="T6">
-        <v>0.04257969099341587</v>
+        <v>0.04722424404243843</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>193.575878</v>
       </c>
       <c r="I7">
-        <v>0.1831005782015253</v>
+        <v>0.20693808715897</v>
       </c>
       <c r="J7">
-        <v>0.1831005782015253</v>
+        <v>0.20693808715897</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.414264</v>
+        <v>1.189172666666667</v>
       </c>
       <c r="N7">
-        <v>4.242792</v>
+        <v>3.567518</v>
       </c>
       <c r="O7">
-        <v>0.04985577133403134</v>
+        <v>0.04160633681080472</v>
       </c>
       <c r="P7">
-        <v>0.04985577133403134</v>
+        <v>0.04160633681080472</v>
       </c>
       <c r="Q7">
-        <v>91.25579850793065</v>
+        <v>76.7317143478671</v>
       </c>
       <c r="R7">
-        <v>821.3021865713758</v>
+        <v>690.585429130804</v>
       </c>
       <c r="S7">
-        <v>0.009128620557944169</v>
+        <v>0.00860993575331977</v>
       </c>
       <c r="T7">
-        <v>0.009128620557944171</v>
+        <v>0.008609935753319769</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>193.575878</v>
       </c>
       <c r="I8">
-        <v>0.1831005782015253</v>
+        <v>0.20693808715897</v>
       </c>
       <c r="J8">
-        <v>0.1831005782015253</v>
+        <v>0.20693808715897</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.051477666666667</v>
+        <v>9.051477666666665</v>
       </c>
       <c r="N8">
         <v>27.154433</v>
       </c>
       <c r="O8">
-        <v>0.3190835662821262</v>
+        <v>0.3166897785251344</v>
       </c>
       <c r="P8">
-        <v>0.3190835662821262</v>
+        <v>0.3166897785251344</v>
       </c>
       <c r="Q8">
-        <v>584.0492455074638</v>
+        <v>584.0492455074636</v>
       </c>
       <c r="R8">
-        <v>5256.443209567174</v>
+        <v>5256.443209567173</v>
       </c>
       <c r="S8">
-        <v>0.05842438548086203</v>
+        <v>0.06553517699078917</v>
       </c>
       <c r="T8">
-        <v>0.05842438548086204</v>
+        <v>0.06553517699078917</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>193.575878</v>
       </c>
       <c r="I9">
-        <v>0.1831005782015253</v>
+        <v>0.20693808715897</v>
       </c>
       <c r="J9">
-        <v>0.1831005782015253</v>
+        <v>0.20693808715897</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.586440999999999</v>
+        <v>8.709194666666667</v>
       </c>
       <c r="N9">
-        <v>25.759323</v>
+        <v>26.127584</v>
       </c>
       <c r="O9">
-        <v>0.3026900487243905</v>
+        <v>0.3047141065459495</v>
       </c>
       <c r="P9">
-        <v>0.3026900487243905</v>
+        <v>0.3047141065459494</v>
       </c>
       <c r="Q9">
-        <v>554.0426184900658</v>
+        <v>561.963334757639</v>
       </c>
       <c r="R9">
-        <v>4986.383566410594</v>
+        <v>5057.670012818751</v>
       </c>
       <c r="S9">
-        <v>0.05542272293728376</v>
+        <v>0.06305695433897338</v>
       </c>
       <c r="T9">
-        <v>0.05542272293728377</v>
+        <v>0.06305695433897335</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>193.575878</v>
       </c>
       <c r="I10">
-        <v>0.1831005782015253</v>
+        <v>0.20693808715897</v>
       </c>
       <c r="J10">
-        <v>0.1831005782015253</v>
+        <v>0.20693808715897</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.089400666666666</v>
+        <v>0.9484986666666666</v>
       </c>
       <c r="N10">
-        <v>3.268202</v>
+        <v>2.845496</v>
       </c>
       <c r="O10">
-        <v>0.03840365768235254</v>
+        <v>0.0331857232310524</v>
       </c>
       <c r="P10">
-        <v>0.03840365768235254</v>
+        <v>0.03318572323105239</v>
       </c>
       <c r="Q10">
-        <v>70.29389684792842</v>
+        <v>61.20215406060976</v>
       </c>
       <c r="R10">
-        <v>632.6450716313559</v>
+        <v>550.8193865454879</v>
       </c>
       <c r="S10">
-        <v>0.007031731926692198</v>
+        <v>0.006867390086420978</v>
       </c>
       <c r="T10">
-        <v>0.0070317319266922</v>
+        <v>0.006867390086420976</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>193.575878</v>
       </c>
       <c r="I11">
-        <v>0.1831005782015253</v>
+        <v>0.20693808715897</v>
       </c>
       <c r="J11">
-        <v>0.1831005782015253</v>
+        <v>0.20693808715897</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.225523666666668</v>
+        <v>8.683183999999999</v>
       </c>
       <c r="N11">
-        <v>24.676571</v>
+        <v>26.049552</v>
       </c>
       <c r="O11">
-        <v>0.2899669559770994</v>
+        <v>0.3038040548870592</v>
       </c>
       <c r="P11">
-        <v>0.2899669559770993</v>
+        <v>0.3038040548870592</v>
       </c>
       <c r="Q11">
-        <v>530.7543219282597</v>
+        <v>560.2849888785172</v>
       </c>
       <c r="R11">
-        <v>4776.788897354339</v>
+        <v>5042.564899906655</v>
       </c>
       <c r="S11">
-        <v>0.05309311729874312</v>
+        <v>0.06286862998946677</v>
       </c>
       <c r="T11">
-        <v>0.05309311729874313</v>
+        <v>0.06286862998946677</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>102.0393243333333</v>
+        <v>75.47903666666667</v>
       </c>
       <c r="H12">
-        <v>306.117973</v>
+        <v>226.43711</v>
       </c>
       <c r="I12">
-        <v>0.2895524919389952</v>
+        <v>0.2420676733554854</v>
       </c>
       <c r="J12">
-        <v>0.2895524919389952</v>
+        <v>0.2420676733554854</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.414264</v>
+        <v>1.189172666666667</v>
       </c>
       <c r="N12">
-        <v>4.242792</v>
+        <v>3.567518</v>
       </c>
       <c r="O12">
-        <v>0.04985577133403134</v>
+        <v>0.04160633681080472</v>
       </c>
       <c r="P12">
-        <v>0.04985577133403134</v>
+        <v>0.04160633681080472</v>
       </c>
       <c r="Q12">
-        <v>144.3105429889573</v>
+        <v>89.75760731033112</v>
       </c>
       <c r="R12">
-        <v>1298.794886900616</v>
+        <v>807.81846579298</v>
       </c>
       <c r="S12">
-        <v>0.0144358628273095</v>
+        <v>0.01007154914863619</v>
       </c>
       <c r="T12">
-        <v>0.0144358628273095</v>
+        <v>0.01007154914863618</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>102.0393243333333</v>
+        <v>75.47903666666667</v>
       </c>
       <c r="H13">
-        <v>306.117973</v>
+        <v>226.43711</v>
       </c>
       <c r="I13">
-        <v>0.2895524919389952</v>
+        <v>0.2420676733554854</v>
       </c>
       <c r="J13">
-        <v>0.2895524919389952</v>
+        <v>0.2420676733554854</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>9.051477666666667</v>
+        <v>9.051477666666665</v>
       </c>
       <c r="N13">
         <v>27.154433</v>
       </c>
       <c r="O13">
-        <v>0.3190835662821262</v>
+        <v>0.3166897785251344</v>
       </c>
       <c r="P13">
-        <v>0.3190835662821262</v>
+        <v>0.3166897785251344</v>
       </c>
       <c r="Q13">
-        <v>923.6066653249234</v>
+        <v>683.1968146898478</v>
       </c>
       <c r="R13">
-        <v>8312.459987924309</v>
+        <v>6148.77133220863</v>
       </c>
       <c r="S13">
-        <v>0.09239144175377118</v>
+        <v>0.07666035786304323</v>
       </c>
       <c r="T13">
-        <v>0.0923914417537712</v>
+        <v>0.07666035786304323</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>102.0393243333333</v>
+        <v>75.47903666666667</v>
       </c>
       <c r="H14">
-        <v>306.117973</v>
+        <v>226.43711</v>
       </c>
       <c r="I14">
-        <v>0.2895524919389952</v>
+        <v>0.2420676733554854</v>
       </c>
       <c r="J14">
-        <v>0.2895524919389952</v>
+        <v>0.2420676733554854</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.586440999999999</v>
+        <v>8.709194666666667</v>
       </c>
       <c r="N14">
-        <v>25.759323</v>
+        <v>26.127584</v>
       </c>
       <c r="O14">
-        <v>0.3026900487243905</v>
+        <v>0.3047141065459495</v>
       </c>
       <c r="P14">
-        <v>0.3026900487243905</v>
+        <v>0.3047141065459494</v>
       </c>
       <c r="Q14">
-        <v>876.154638068031</v>
+        <v>657.3616235824712</v>
       </c>
       <c r="R14">
-        <v>7885.391742612279</v>
+        <v>5916.25461224224</v>
       </c>
       <c r="S14">
-        <v>0.08764465789328313</v>
+        <v>0.07376143481017348</v>
       </c>
       <c r="T14">
-        <v>0.08764465789328316</v>
+        <v>0.07376143481017346</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>102.0393243333333</v>
+        <v>75.47903666666667</v>
       </c>
       <c r="H15">
-        <v>306.117973</v>
+        <v>226.43711</v>
       </c>
       <c r="I15">
-        <v>0.2895524919389952</v>
+        <v>0.2420676733554854</v>
       </c>
       <c r="J15">
-        <v>0.2895524919389952</v>
+        <v>0.2420676733554854</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.089400666666666</v>
+        <v>0.9484986666666666</v>
       </c>
       <c r="N15">
-        <v>3.268202</v>
+        <v>2.845496</v>
       </c>
       <c r="O15">
-        <v>0.03840365768235254</v>
+        <v>0.0331857232310524</v>
       </c>
       <c r="P15">
-        <v>0.03840365768235254</v>
+        <v>0.03318572323105239</v>
       </c>
       <c r="Q15">
-        <v>111.1617079549495</v>
+        <v>71.59176563961778</v>
       </c>
       <c r="R15">
-        <v>1000.455371594546</v>
+        <v>644.3258907565601</v>
       </c>
       <c r="S15">
-        <v>0.01111987478149731</v>
+        <v>0.008033190811159935</v>
       </c>
       <c r="T15">
-        <v>0.01111987478149731</v>
+        <v>0.008033190811159933</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>102.0393243333333</v>
+        <v>75.47903666666667</v>
       </c>
       <c r="H16">
-        <v>306.117973</v>
+        <v>226.43711</v>
       </c>
       <c r="I16">
-        <v>0.2895524919389952</v>
+        <v>0.2420676733554854</v>
       </c>
       <c r="J16">
-        <v>0.2895524919389952</v>
+        <v>0.2420676733554854</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.225523666666668</v>
+        <v>8.683183999999999</v>
       </c>
       <c r="N16">
-        <v>24.676571</v>
+        <v>26.049552</v>
       </c>
       <c r="O16">
-        <v>0.2899669559770994</v>
+        <v>0.3038040548870592</v>
       </c>
       <c r="P16">
-        <v>0.2899669559770993</v>
+        <v>0.3038040548870592</v>
       </c>
       <c r="Q16">
-        <v>839.3268772345094</v>
+        <v>655.3983635194134</v>
       </c>
       <c r="R16">
-        <v>7553.941895110584</v>
+        <v>5898.58527167472</v>
       </c>
       <c r="S16">
-        <v>0.08396065468313403</v>
+        <v>0.0735411407224726</v>
       </c>
       <c r="T16">
-        <v>0.08396065468313403</v>
+        <v>0.0735411407224726</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>49.64042033333334</v>
+        <v>51.18999233333333</v>
       </c>
       <c r="H17">
-        <v>148.921261</v>
+        <v>153.569977</v>
       </c>
       <c r="I17">
-        <v>0.1408624322272234</v>
+        <v>0.164170647777855</v>
       </c>
       <c r="J17">
-        <v>0.1408624322272234</v>
+        <v>0.164170647777855</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.414264</v>
+        <v>1.189172666666667</v>
       </c>
       <c r="N17">
-        <v>4.242792</v>
+        <v>3.567518</v>
       </c>
       <c r="O17">
-        <v>0.04985577133403134</v>
+        <v>0.04160633681080472</v>
       </c>
       <c r="P17">
-        <v>0.04985577133403134</v>
+        <v>0.04160633681080472</v>
       </c>
       <c r="Q17">
-        <v>70.20465942230133</v>
+        <v>60.87373968967621</v>
       </c>
       <c r="R17">
-        <v>631.841934800712</v>
+        <v>547.8636572070859</v>
       </c>
       <c r="S17">
-        <v>0.007022805210675937</v>
+        <v>0.006830539265893425</v>
       </c>
       <c r="T17">
-        <v>0.007022805210675938</v>
+        <v>0.006830539265893422</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>49.64042033333334</v>
+        <v>51.18999233333333</v>
       </c>
       <c r="H18">
-        <v>148.921261</v>
+        <v>153.569977</v>
       </c>
       <c r="I18">
-        <v>0.1408624322272234</v>
+        <v>0.164170647777855</v>
       </c>
       <c r="J18">
-        <v>0.1408624322272234</v>
+        <v>0.164170647777855</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>9.051477666666667</v>
+        <v>9.051477666666665</v>
       </c>
       <c r="N18">
         <v>27.154433</v>
       </c>
       <c r="O18">
-        <v>0.3190835662821262</v>
+        <v>0.3166897785251344</v>
       </c>
       <c r="P18">
-        <v>0.3190835662821262</v>
+        <v>0.3166897785251344</v>
       </c>
       <c r="Q18">
-        <v>449.3191560111126</v>
+        <v>463.3450723620044</v>
       </c>
       <c r="R18">
-        <v>4043.872404100014</v>
+        <v>4170.105651258041</v>
       </c>
       <c r="S18">
-        <v>0.04494688723023674</v>
+        <v>0.05199116608509673</v>
       </c>
       <c r="T18">
-        <v>0.04494688723023675</v>
+        <v>0.05199116608509673</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>49.64042033333334</v>
+        <v>51.18999233333333</v>
       </c>
       <c r="H19">
-        <v>148.921261</v>
+        <v>153.569977</v>
       </c>
       <c r="I19">
-        <v>0.1408624322272234</v>
+        <v>0.164170647777855</v>
       </c>
       <c r="J19">
-        <v>0.1408624322272234</v>
+        <v>0.164170647777855</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>8.586440999999999</v>
+        <v>8.709194666666667</v>
       </c>
       <c r="N19">
-        <v>25.759323</v>
+        <v>26.127584</v>
       </c>
       <c r="O19">
-        <v>0.3026900487243905</v>
+        <v>0.3047141065459495</v>
       </c>
       <c r="P19">
-        <v>0.3026900487243905</v>
+        <v>0.3047141065459494</v>
       </c>
       <c r="Q19">
-        <v>426.234540407367</v>
+        <v>445.8236082161742</v>
       </c>
       <c r="R19">
-        <v>3836.110863666303</v>
+        <v>4012.412473945568</v>
       </c>
       <c r="S19">
-        <v>0.0426376564742944</v>
+        <v>0.05002511225869885</v>
       </c>
       <c r="T19">
-        <v>0.04263765647429441</v>
+        <v>0.05002511225869882</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>49.64042033333334</v>
+        <v>51.18999233333333</v>
       </c>
       <c r="H20">
-        <v>148.921261</v>
+        <v>153.569977</v>
       </c>
       <c r="I20">
-        <v>0.1408624322272234</v>
+        <v>0.164170647777855</v>
       </c>
       <c r="J20">
-        <v>0.1408624322272234</v>
+        <v>0.164170647777855</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.089400666666666</v>
+        <v>0.9484986666666666</v>
       </c>
       <c r="N20">
-        <v>3.268202</v>
+        <v>2.845496</v>
       </c>
       <c r="O20">
-        <v>0.03840365768235254</v>
+        <v>0.0331857232310524</v>
       </c>
       <c r="P20">
-        <v>0.03840365768235254</v>
+        <v>0.03318572323105239</v>
       </c>
       <c r="Q20">
-        <v>54.07830700474688</v>
+        <v>48.55363947484355</v>
       </c>
       <c r="R20">
-        <v>486.704763042722</v>
+        <v>436.982755273592</v>
       </c>
       <c r="S20">
-        <v>0.005409632627557871</v>
+        <v>0.005448121679818483</v>
       </c>
       <c r="T20">
-        <v>0.005409632627557872</v>
+        <v>0.005448121679818481</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>49.64042033333334</v>
+        <v>51.18999233333333</v>
       </c>
       <c r="H21">
-        <v>148.921261</v>
+        <v>153.569977</v>
       </c>
       <c r="I21">
-        <v>0.1408624322272234</v>
+        <v>0.164170647777855</v>
       </c>
       <c r="J21">
-        <v>0.1408624322272234</v>
+        <v>0.164170647777855</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>8.225523666666668</v>
+        <v>8.683183999999999</v>
       </c>
       <c r="N21">
-        <v>24.676571</v>
+        <v>26.049552</v>
       </c>
       <c r="O21">
-        <v>0.2899669559770994</v>
+        <v>0.3038040548870592</v>
       </c>
       <c r="P21">
-        <v>0.2899669559770993</v>
+        <v>0.3038040548870592</v>
       </c>
       <c r="Q21">
-        <v>408.3184522751146</v>
+        <v>444.4921223889226</v>
       </c>
       <c r="R21">
-        <v>3674.866070476032</v>
+        <v>4000.429101500304</v>
       </c>
       <c r="S21">
-        <v>0.04084545068445843</v>
+        <v>0.04987570848834751</v>
       </c>
       <c r="T21">
-        <v>0.04084545068445843</v>
+        <v>0.04987570848834751</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>84.450424</v>
+        <v>72.14667033333333</v>
       </c>
       <c r="H22">
-        <v>253.351272</v>
+        <v>216.440011</v>
       </c>
       <c r="I22">
-        <v>0.239641244924597</v>
+        <v>0.2313804918452</v>
       </c>
       <c r="J22">
-        <v>0.239641244924597</v>
+        <v>0.2313804918452</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.414264</v>
+        <v>1.189172666666667</v>
       </c>
       <c r="N22">
-        <v>4.242792</v>
+        <v>3.567518</v>
       </c>
       <c r="O22">
-        <v>0.04985577133403134</v>
+        <v>0.04160633681080472</v>
       </c>
       <c r="P22">
-        <v>0.04985577133403134</v>
+        <v>0.04160633681080472</v>
       </c>
       <c r="Q22">
-        <v>119.435194447936</v>
+        <v>85.79484835141089</v>
       </c>
       <c r="R22">
-        <v>1074.916750031424</v>
+        <v>772.1536351626979</v>
       </c>
       <c r="S22">
-        <v>0.01194749910916331</v>
+        <v>0.009626894675161049</v>
       </c>
       <c r="T22">
-        <v>0.01194749910916331</v>
+        <v>0.009626894675161046</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>84.450424</v>
+        <v>72.14667033333333</v>
       </c>
       <c r="H23">
-        <v>253.351272</v>
+        <v>216.440011</v>
       </c>
       <c r="I23">
-        <v>0.239641244924597</v>
+        <v>0.2313804918452</v>
       </c>
       <c r="J23">
-        <v>0.239641244924597</v>
+        <v>0.2313804918452</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1860,28 +1860,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>9.051477666666667</v>
+        <v>9.051477666666665</v>
       </c>
       <c r="N23">
         <v>27.154433</v>
       </c>
       <c r="O23">
-        <v>0.3190835662821262</v>
+        <v>0.3166897785251344</v>
       </c>
       <c r="P23">
-        <v>0.3190835662821262</v>
+        <v>0.3166897785251344</v>
       </c>
       <c r="Q23">
-        <v>764.4011267765306</v>
+        <v>653.0339752465292</v>
       </c>
       <c r="R23">
-        <v>6879.610140988776</v>
+        <v>5877.305777218762</v>
       </c>
       <c r="S23">
-        <v>0.07646558305882889</v>
+        <v>0.07327583671749306</v>
       </c>
       <c r="T23">
-        <v>0.0764655830588289</v>
+        <v>0.07327583671749305</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>84.450424</v>
+        <v>72.14667033333333</v>
       </c>
       <c r="H24">
-        <v>253.351272</v>
+        <v>216.440011</v>
       </c>
       <c r="I24">
-        <v>0.239641244924597</v>
+        <v>0.2313804918452</v>
       </c>
       <c r="J24">
-        <v>0.239641244924597</v>
+        <v>0.2313804918452</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>8.586440999999999</v>
+        <v>8.709194666666667</v>
       </c>
       <c r="N24">
-        <v>25.759323</v>
+        <v>26.127584</v>
       </c>
       <c r="O24">
-        <v>0.3026900487243905</v>
+        <v>0.3047141065459495</v>
       </c>
       <c r="P24">
-        <v>0.3026900487243905</v>
+        <v>0.3047141065459494</v>
       </c>
       <c r="Q24">
-        <v>725.1285831009839</v>
+        <v>628.3393964848249</v>
       </c>
       <c r="R24">
-        <v>6526.157247908855</v>
+        <v>5655.054568363424</v>
       </c>
       <c r="S24">
-        <v>0.07253702010259987</v>
+        <v>0.07050489984477248</v>
       </c>
       <c r="T24">
-        <v>0.07253702010259987</v>
+        <v>0.07050489984477246</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>84.450424</v>
+        <v>72.14667033333333</v>
       </c>
       <c r="H25">
-        <v>253.351272</v>
+        <v>216.440011</v>
       </c>
       <c r="I25">
-        <v>0.239641244924597</v>
+        <v>0.2313804918452</v>
       </c>
       <c r="J25">
-        <v>0.239641244924597</v>
+        <v>0.2313804918452</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.089400666666666</v>
+        <v>0.9484986666666666</v>
       </c>
       <c r="N25">
-        <v>3.268202</v>
+        <v>2.845496</v>
       </c>
       <c r="O25">
-        <v>0.03840365768235254</v>
+        <v>0.0331857232310524</v>
       </c>
       <c r="P25">
-        <v>0.03840365768235254</v>
+        <v>0.03318572323105239</v>
       </c>
       <c r="Q25">
-        <v>92.00034820588264</v>
+        <v>68.43102061560622</v>
       </c>
       <c r="R25">
-        <v>828.0031338529438</v>
+        <v>615.879185540456</v>
       </c>
       <c r="S25">
-        <v>0.009203100336657026</v>
+        <v>0.007678528963439585</v>
       </c>
       <c r="T25">
-        <v>0.009203100336657027</v>
+        <v>0.007678528963439583</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>84.450424</v>
+        <v>72.14667033333333</v>
       </c>
       <c r="H26">
-        <v>253.351272</v>
+        <v>216.440011</v>
       </c>
       <c r="I26">
-        <v>0.239641244924597</v>
+        <v>0.2313804918452</v>
       </c>
       <c r="J26">
-        <v>0.239641244924597</v>
+        <v>0.2313804918452</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>8.225523666666668</v>
+        <v>8.683183999999999</v>
       </c>
       <c r="N26">
-        <v>24.676571</v>
+        <v>26.049552</v>
       </c>
       <c r="O26">
-        <v>0.2899669559770994</v>
+        <v>0.3038040548870592</v>
       </c>
       <c r="P26">
-        <v>0.2899669559770993</v>
+        <v>0.3038040548870592</v>
       </c>
       <c r="Q26">
-        <v>694.6489612720347</v>
+        <v>626.4628134916746</v>
       </c>
       <c r="R26">
-        <v>6251.840651448312</v>
+        <v>5638.165321425072</v>
       </c>
       <c r="S26">
-        <v>0.06948804231734791</v>
+        <v>0.07029433164433391</v>
       </c>
       <c r="T26">
-        <v>0.06948804231734791</v>
+        <v>0.07029433164433389</v>
       </c>
     </row>
   </sheetData>
